--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>33098.79550173788</v>
+        <v>3.809635760594444</v>
       </c>
       <c r="R2">
-        <v>297889.159515641</v>
+        <v>34.28672184535</v>
       </c>
       <c r="S2">
-        <v>0.3139736049548815</v>
+        <v>0.001242184074416926</v>
       </c>
       <c r="T2">
-        <v>0.3139736049548815</v>
+        <v>0.001242184074416926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>28725.61353195791</v>
+        <v>5.019916144951112</v>
       </c>
       <c r="R3">
-        <v>258530.5217876212</v>
+        <v>45.17924530456</v>
       </c>
       <c r="S3">
-        <v>0.2724898081169145</v>
+        <v>0.001636812619900881</v>
       </c>
       <c r="T3">
-        <v>0.2724898081169145</v>
+        <v>0.001636812619900881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>40163.46881411662</v>
+        <v>7.018727217537778</v>
       </c>
       <c r="R4">
-        <v>361471.2193270496</v>
+        <v>63.16854495784001</v>
       </c>
       <c r="S4">
-        <v>0.3809887610683307</v>
+        <v>0.002288552428681957</v>
       </c>
       <c r="T4">
-        <v>0.3809887610683306</v>
+        <v>0.002288552428681957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>902.9633000275568</v>
+        <v>594.722288694589</v>
       </c>
       <c r="R5">
-        <v>8126.66970024801</v>
+        <v>5352.5005982513</v>
       </c>
       <c r="S5">
-        <v>0.008565467055643232</v>
+        <v>0.1939173721956901</v>
       </c>
       <c r="T5">
-        <v>0.008565467055643228</v>
+        <v>0.1939173721956901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>783.6591754153424</v>
@@ -818,10 +818,10 @@
         <v>7052.932578738081</v>
       </c>
       <c r="S6">
-        <v>0.007433753785638691</v>
+        <v>0.2555228396217449</v>
       </c>
       <c r="T6">
-        <v>0.007433753785638687</v>
+        <v>0.2555228396217449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>1095.693598247236</v>
@@ -880,10 +880,10 @@
         <v>9861.242384225121</v>
       </c>
       <c r="S7">
-        <v>0.01039369752744045</v>
+        <v>0.357265949742901</v>
       </c>
       <c r="T7">
-        <v>0.01039369752744045</v>
+        <v>0.357265949742901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>210.5737418625243</v>
+        <v>138.6910162302744</v>
       </c>
       <c r="R8">
-        <v>1895.163676762719</v>
+        <v>1248.21914607247</v>
       </c>
       <c r="S8">
-        <v>0.00199749253225677</v>
+        <v>0.04522211110257539</v>
       </c>
       <c r="T8">
-        <v>0.00199749253225677</v>
+        <v>0.0452221111025754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>182.7516632260391</v>
@@ -1004,10 +1004,10 @@
         <v>1644.764969034352</v>
       </c>
       <c r="S9">
-        <v>0.001733573613322793</v>
+        <v>0.05958869033641394</v>
       </c>
       <c r="T9">
-        <v>0.001733573613322792</v>
+        <v>0.05958869033641394</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>255.5190237639698</v>
@@ -1066,10 +1066,10 @@
         <v>2299.671213875728</v>
       </c>
       <c r="S10">
-        <v>0.00242384134557142</v>
+        <v>0.0833154878776749</v>
       </c>
       <c r="T10">
-        <v>0.002423841345571419</v>
+        <v>0.08331548787767491</v>
       </c>
     </row>
   </sheetData>
